--- a/Documents/Testing/Test Documents/traceability-matrix.xlsx
+++ b/Documents/Testing/Test Documents/traceability-matrix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seneca-my.sharepoint.com/personal/robert_robson1_senecacollege_ca/Documents/SFT221/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA32D7C2-ADF8-499B-B909-D36EBA3F1646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68DC463C-A744-4451-8C57-83CADA29EC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6120" yWindow="2730" windowWidth="27890" windowHeight="17020" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="86">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -65,6 +65,9 @@
     <t>R007</t>
   </si>
   <si>
+    <t>R008</t>
+  </si>
+  <si>
     <t>R001:</t>
   </si>
   <si>
@@ -125,9 +128,21 @@
     <t>T006</t>
   </si>
   <si>
+    <t>R007:</t>
+  </si>
+  <si>
+    <t>Black Box: Find Truck For Shipment</t>
+  </si>
+  <si>
     <t>T007</t>
   </si>
   <si>
+    <t>Rr008:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Box : Find Truck For Shipment </t>
+  </si>
+  <si>
     <t>T008</t>
   </si>
   <si>
@@ -267,6 +282,18 @@
   </si>
   <si>
     <t>T053</t>
+  </si>
+  <si>
+    <t>T054</t>
+  </si>
+  <si>
+    <t>T055</t>
+  </si>
+  <si>
+    <t>T056</t>
+  </si>
+  <si>
+    <t>T057</t>
   </si>
 </sst>
 </file>
@@ -395,7 +422,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -709,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -762,25 +789,27 @@
       <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.45" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -792,19 +821,19 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.45" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -816,19 +845,19 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.45" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -840,19 +869,19 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.45" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -864,19 +893,19 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.45" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -888,19 +917,19 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.45" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -911,15 +940,21 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="14.45" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -929,15 +964,21 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="14.45" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -951,11 +992,11 @@
     <row r="11" spans="1:14" ht="14.45" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -969,11 +1010,11 @@
     <row r="12" spans="1:14" ht="14.45" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -987,11 +1028,11 @@
     <row r="13" spans="1:14" ht="14.45" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1005,11 +1046,11 @@
     <row r="14" spans="1:14" ht="14.45" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1023,11 +1064,11 @@
     <row r="15" spans="1:14" ht="14.45" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1041,11 +1082,11 @@
     <row r="16" spans="1:14" ht="14.45" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1059,12 +1100,12 @@
     <row r="17" spans="1:12" ht="14.45" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1077,12 +1118,12 @@
     <row r="18" spans="1:12" ht="14.45" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1095,12 +1136,12 @@
     <row r="19" spans="1:12" ht="14.45" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1113,12 +1154,12 @@
     <row r="20" spans="1:12" ht="14.45" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1131,12 +1172,12 @@
     <row r="21" spans="1:12" ht="14.45" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1149,12 +1190,12 @@
     <row r="22" spans="1:12" ht="14.45" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1167,12 +1208,12 @@
     <row r="23" spans="1:12" ht="15">
       <c r="A23" s="6"/>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1185,12 +1226,12 @@
     <row r="24" spans="1:12" ht="14.45" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1203,12 +1244,12 @@
     <row r="25" spans="1:12" ht="14.45" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1221,12 +1262,12 @@
     <row r="26" spans="1:12" ht="14.45" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1239,12 +1280,12 @@
     <row r="27" spans="1:12" ht="14.45" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1257,12 +1298,12 @@
     <row r="28" spans="1:12" ht="14.45" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1275,12 +1316,12 @@
     <row r="29" spans="1:12" ht="14.45" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1293,12 +1334,12 @@
     <row r="30" spans="1:12" ht="14.45" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1311,12 +1352,12 @@
     <row r="31" spans="1:12" ht="14.45" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1329,12 +1370,12 @@
     <row r="32" spans="1:12" ht="14.45" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1347,12 +1388,12 @@
     <row r="33" spans="1:12" ht="14.45" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1365,12 +1406,12 @@
     <row r="34" spans="1:12" ht="14.45" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1383,12 +1424,12 @@
     <row r="35" spans="1:12" ht="14.45" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1401,13 +1442,13 @@
     <row r="36" spans="1:12" ht="14.45" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -1419,13 +1460,13 @@
     <row r="37" spans="1:12" ht="14.45" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -1437,13 +1478,13 @@
     <row r="38" spans="1:12" ht="14.45" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -1455,13 +1496,13 @@
     <row r="39" spans="1:12" ht="14.45" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -1473,14 +1514,14 @@
     <row r="40" spans="1:12" ht="14.45" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -1491,14 +1532,14 @@
     <row r="41" spans="1:12" ht="14.45" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -1509,14 +1550,14 @@
     <row r="42" spans="1:12" ht="14.45" customHeight="1">
       <c r="A42" s="8"/>
       <c r="B42" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -1527,14 +1568,14 @@
     <row r="43" spans="1:12" ht="14.45" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -1545,14 +1586,14 @@
     <row r="44" spans="1:12" ht="14.45" customHeight="1">
       <c r="A44" s="7"/>
       <c r="B44" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -1563,14 +1604,14 @@
     <row r="45" spans="1:12" ht="14.45" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -1581,14 +1622,14 @@
     <row r="46" spans="1:12" ht="14.45" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -1599,7 +1640,7 @@
     <row r="47" spans="1:12" ht="14.45" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1607,7 +1648,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -1617,7 +1658,7 @@
     <row r="48" spans="1:12" ht="15">
       <c r="A48" s="7"/>
       <c r="B48" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1625,7 +1666,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -1635,7 +1676,7 @@
     <row r="49" spans="1:12" ht="14.45" customHeight="1">
       <c r="A49" s="7"/>
       <c r="B49" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1643,7 +1684,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -1653,7 +1694,7 @@
     <row r="50" spans="1:12" ht="14.45" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -1661,7 +1702,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -1671,7 +1712,7 @@
     <row r="51" spans="1:12" ht="14.45" customHeight="1">
       <c r="A51" s="7"/>
       <c r="B51" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1679,7 +1720,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -1689,7 +1730,7 @@
     <row r="52" spans="1:12" ht="14.45" customHeight="1">
       <c r="A52" s="7"/>
       <c r="B52" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1697,7 +1738,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -1707,7 +1748,7 @@
     <row r="53" spans="1:12" ht="14.45" customHeight="1">
       <c r="A53" s="7"/>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1715,7 +1756,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -1725,7 +1766,7 @@
     <row r="54" spans="1:12" ht="14.45" customHeight="1">
       <c r="A54" s="7"/>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -1733,7 +1774,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -1743,7 +1784,7 @@
     <row r="55" spans="1:12" ht="14.45" customHeight="1">
       <c r="A55" s="7"/>
       <c r="B55" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -1751,7 +1792,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -1760,7 +1801,9 @@
     </row>
     <row r="56" spans="1:12" ht="14.45" customHeight="1">
       <c r="A56" s="7"/>
-      <c r="B56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -1768,13 +1811,17 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="J56" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
     <row r="57" spans="1:12" ht="14.45" customHeight="1">
       <c r="A57" s="7"/>
-      <c r="B57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -1782,13 +1829,17 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="J57" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
     <row r="58" spans="1:12" ht="14.45" customHeight="1">
       <c r="A58" s="7"/>
-      <c r="B58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -1796,13 +1847,17 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+      <c r="J58" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
     <row r="59" spans="1:12" ht="14.45" customHeight="1">
       <c r="A59" s="7"/>
-      <c r="B59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -1810,7 +1865,9 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
+      <c r="J59" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>

--- a/Documents/Testing/Test Documents/traceability-matrix.xlsx
+++ b/Documents/Testing/Test Documents/traceability-matrix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seneca-my.sharepoint.com/personal/robert_robson1_senecacollege_ca/Documents/SFT221/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68DC463C-A744-4451-8C57-83CADA29EC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{198C81C0-8F47-4488-A573-E789BE94C74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6120" yWindow="2730" windowWidth="27890" windowHeight="17020" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -77,7 +77,7 @@
     <t>Tests</t>
   </si>
   <si>
-    <t>T001</t>
+    <t>TS0001</t>
   </si>
   <si>
     <t>X</t>
@@ -89,7 +89,7 @@
     <t>Choose the proper truck when distance are the same</t>
   </si>
   <si>
-    <t>T002</t>
+    <t>TS0002</t>
   </si>
   <si>
     <t>R003:</t>
@@ -98,7 +98,7 @@
     <t>get the close point in a given route from a destination</t>
   </si>
   <si>
-    <t>T003</t>
+    <t>TS0003</t>
   </si>
   <si>
     <t>R004:</t>
@@ -107,7 +107,7 @@
     <t>valid weight of the shipment, meets the requirment</t>
   </si>
   <si>
-    <t>T004</t>
+    <t>TS0004</t>
   </si>
   <si>
     <t>R005:</t>
@@ -116,7 +116,7 @@
     <t>Valid size of the shipment, meets the requirment</t>
   </si>
   <si>
-    <t>T005</t>
+    <t>TS0005</t>
   </si>
   <si>
     <t>R006:</t>
@@ -125,7 +125,7 @@
     <t>Validate Truck with current shipement weight</t>
   </si>
   <si>
-    <t>T006</t>
+    <t>TS0006</t>
   </si>
   <si>
     <t>R007:</t>
@@ -134,7 +134,7 @@
     <t>Black Box: Find Truck For Shipment</t>
   </si>
   <si>
-    <t>T007</t>
+    <t>TS0007</t>
   </si>
   <si>
     <t>Rr008:</t>
@@ -143,164 +143,233 @@
     <t xml:space="preserve">White Box : Find Truck For Shipment </t>
   </si>
   <si>
-    <t>T008</t>
-  </si>
-  <si>
-    <t>T009</t>
-  </si>
-  <si>
-    <t>T010</t>
-  </si>
-  <si>
-    <t>T011</t>
-  </si>
-  <si>
-    <t>T012</t>
-  </si>
-  <si>
-    <t>T013</t>
-  </si>
-  <si>
-    <t>T014</t>
-  </si>
-  <si>
-    <t>T015</t>
-  </si>
-  <si>
-    <t>T016</t>
-  </si>
-  <si>
-    <t>T017</t>
-  </si>
-  <si>
-    <t>T018</t>
-  </si>
-  <si>
-    <t>T019</t>
-  </si>
-  <si>
-    <t>T020</t>
-  </si>
-  <si>
-    <t>T021</t>
-  </si>
-  <si>
-    <t>T022</t>
-  </si>
-  <si>
-    <t>T023</t>
-  </si>
-  <si>
-    <t>T024</t>
-  </si>
-  <si>
-    <t>T025</t>
-  </si>
-  <si>
-    <t>T026</t>
-  </si>
-  <si>
-    <t>T027</t>
-  </si>
-  <si>
-    <t>T028</t>
-  </si>
-  <si>
-    <t>T029</t>
-  </si>
-  <si>
-    <t>T030</t>
-  </si>
-  <si>
-    <t>T031</t>
-  </si>
-  <si>
-    <t>T032</t>
-  </si>
-  <si>
-    <t>T033</t>
-  </si>
-  <si>
-    <t>T034</t>
+    <t>TS0008</t>
+  </si>
+  <si>
+    <t>TS0009</t>
+  </si>
+  <si>
+    <t>TS0010</t>
+  </si>
+  <si>
+    <t>TS0011</t>
+  </si>
+  <si>
+    <t>TS0012</t>
+  </si>
+  <si>
+    <t>TS0013</t>
+  </si>
+  <si>
+    <t>TS0014</t>
+  </si>
+  <si>
+    <t>TS0015</t>
+  </si>
+  <si>
+    <t>TS0016</t>
+  </si>
+  <si>
+    <t>TS0017</t>
+  </si>
+  <si>
+    <t>TS0018</t>
+  </si>
+  <si>
+    <t>TS0019</t>
+  </si>
+  <si>
+    <t>TS0020</t>
+  </si>
+  <si>
+    <t>TS0021</t>
+  </si>
+  <si>
+    <t>TS0022</t>
+  </si>
+  <si>
+    <t>TS0023</t>
+  </si>
+  <si>
+    <t>TS0024</t>
+  </si>
+  <si>
+    <t>TS0025</t>
+  </si>
+  <si>
+    <t>TS0026</t>
+  </si>
+  <si>
+    <t>TS0027</t>
+  </si>
+  <si>
+    <t>TS0028</t>
+  </si>
+  <si>
+    <t>TS0029</t>
+  </si>
+  <si>
+    <t>TS0030</t>
+  </si>
+  <si>
+    <t>TS0031</t>
+  </si>
+  <si>
+    <t>TS0032</t>
+  </si>
+  <si>
+    <t>TS0033</t>
+  </si>
+  <si>
+    <t>TS0034</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>T035</t>
-  </si>
-  <si>
-    <t>T036</t>
-  </si>
-  <si>
-    <t>T037</t>
-  </si>
-  <si>
-    <t>T038</t>
-  </si>
-  <si>
-    <t>T039</t>
-  </si>
-  <si>
-    <t>T040</t>
-  </si>
-  <si>
-    <t>T041</t>
-  </si>
-  <si>
-    <t>T042</t>
-  </si>
-  <si>
-    <t>T043</t>
-  </si>
-  <si>
-    <t>T044</t>
-  </si>
-  <si>
-    <t>T045</t>
-  </si>
-  <si>
-    <t>T046</t>
-  </si>
-  <si>
-    <t>T047</t>
-  </si>
-  <si>
-    <t>T048</t>
-  </si>
-  <si>
-    <t>T049</t>
-  </si>
-  <si>
-    <t>T050</t>
-  </si>
-  <si>
-    <t>T051</t>
-  </si>
-  <si>
-    <t>T052</t>
-  </si>
-  <si>
-    <t>T053</t>
-  </si>
-  <si>
-    <t>T054</t>
-  </si>
-  <si>
-    <t>T055</t>
-  </si>
-  <si>
-    <t>T056</t>
-  </si>
-  <si>
-    <t>T057</t>
+    <t>TS0035</t>
+  </si>
+  <si>
+    <t>TS0036</t>
+  </si>
+  <si>
+    <t>TS0037</t>
+  </si>
+  <si>
+    <t>TS0038</t>
+  </si>
+  <si>
+    <t>TS0039</t>
+  </si>
+  <si>
+    <t>TS0040</t>
+  </si>
+  <si>
+    <t>TS0041</t>
+  </si>
+  <si>
+    <t>TS0042</t>
+  </si>
+  <si>
+    <t>TS0043</t>
+  </si>
+  <si>
+    <t>TS0044</t>
+  </si>
+  <si>
+    <t>TS0045</t>
+  </si>
+  <si>
+    <t>TS0046</t>
+  </si>
+  <si>
+    <t>TS0047</t>
+  </si>
+  <si>
+    <t>TS0048</t>
+  </si>
+  <si>
+    <t>TS0049</t>
+  </si>
+  <si>
+    <t>TS0050</t>
+  </si>
+  <si>
+    <t>TS0051</t>
+  </si>
+  <si>
+    <t>TS0052</t>
+  </si>
+  <si>
+    <t>TS0053</t>
+  </si>
+  <si>
+    <t>TS0054</t>
+  </si>
+  <si>
+    <t>TS0055</t>
+  </si>
+  <si>
+    <t>TS0056</t>
+  </si>
+  <si>
+    <t>TS0057</t>
+  </si>
+  <si>
+    <t>TS0058</t>
+  </si>
+  <si>
+    <t>TS0059</t>
+  </si>
+  <si>
+    <t>TS0060</t>
+  </si>
+  <si>
+    <t>TS0061</t>
+  </si>
+  <si>
+    <t>TS0062</t>
+  </si>
+  <si>
+    <t>TS0063</t>
+  </si>
+  <si>
+    <t>TS0064</t>
+  </si>
+  <si>
+    <t>TS0065</t>
+  </si>
+  <si>
+    <t>TS0066</t>
+  </si>
+  <si>
+    <t>TS0067</t>
+  </si>
+  <si>
+    <t>TS0068</t>
+  </si>
+  <si>
+    <t>TS0069</t>
+  </si>
+  <si>
+    <t>TS0070</t>
+  </si>
+  <si>
+    <t>TS0071</t>
+  </si>
+  <si>
+    <t>TS0072</t>
+  </si>
+  <si>
+    <t>TS0073</t>
+  </si>
+  <si>
+    <t>TS0074</t>
+  </si>
+  <si>
+    <t>TS0075</t>
+  </si>
+  <si>
+    <t>TS0076</t>
+  </si>
+  <si>
+    <t>TS0077</t>
+  </si>
+  <si>
+    <t>TS0078</t>
+  </si>
+  <si>
+    <t>TS0079</t>
+  </si>
+  <si>
+    <t>TS0080</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,8 +377,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +407,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -399,15 +480,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,12 +496,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -734,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -748,25 +830,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="15">
-      <c r="A2" s="9"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -877,7 +959,7 @@
     </row>
     <row r="6" spans="1:14" ht="14.45" customHeight="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -901,7 +983,7 @@
     </row>
     <row r="7" spans="1:14" ht="14.45" customHeight="1">
       <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1873,8 +1955,12 @@
     </row>
     <row r="60" spans="1:12" ht="15">
       <c r="A60" s="7"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
+      <c r="B60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1887,8 +1973,12 @@
     </row>
     <row r="61" spans="1:12" ht="14.45" customHeight="1">
       <c r="A61" s="7"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
+      <c r="B61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1901,8 +1991,12 @@
     </row>
     <row r="62" spans="1:12" ht="14.45" customHeight="1">
       <c r="A62" s="8"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
+      <c r="B62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1913,9 +2007,361 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:12" ht="15"/>
+    <row r="63" spans="1:12" ht="15">
+      <c r="A63" s="6"/>
+      <c r="B63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:12" ht="15">
+      <c r="A64" s="7"/>
+      <c r="B64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" ht="15">
+      <c r="A65" s="7"/>
+      <c r="B65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="1:12" ht="15">
+      <c r="A66" s="7"/>
+      <c r="B66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="1:12" ht="15">
+      <c r="A67" s="7"/>
+      <c r="B67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" ht="15">
+      <c r="A68" s="7"/>
+      <c r="B68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="1:12" ht="15">
+      <c r="A69" s="7"/>
+      <c r="B69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" ht="15">
+      <c r="A70" s="7"/>
+      <c r="B70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:12" ht="15">
+      <c r="A71" s="7"/>
+      <c r="B71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:12" ht="15">
+      <c r="A72" s="7"/>
+      <c r="B72" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:12" ht="15">
+      <c r="A73" s="7"/>
+      <c r="B73" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" ht="15">
+      <c r="A74" s="7"/>
+      <c r="B74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" ht="15">
+      <c r="A75" s="7"/>
+      <c r="B75" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="1:12" ht="15">
+      <c r="A76" s="7"/>
+      <c r="B76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="1:12" ht="15">
+      <c r="A77" s="7"/>
+      <c r="B77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="1:12" ht="15">
+      <c r="A78" s="7"/>
+      <c r="B78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="1:12" ht="15">
+      <c r="A79" s="7"/>
+      <c r="B79" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="1:12" ht="15">
+      <c r="A80" s="7"/>
+      <c r="B80" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="1:12" ht="15">
+      <c r="A81" s="7"/>
+      <c r="B81" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="1:12" ht="15">
+      <c r="A82" s="8"/>
+      <c r="B82" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A63:A82"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A22"/>
     <mergeCell ref="A1:A2"/>

--- a/Documents/Testing/Test Documents/traceability-matrix.xlsx
+++ b/Documents/Testing/Test Documents/traceability-matrix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27930"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seneca-my.sharepoint.com/personal/robert_robson1_senecacollege_ca/Documents/SFT221/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{198C81C0-8F47-4488-A573-E789BE94C74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8B9FF6C-92CF-4770-A179-F980EAEF2FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6120" yWindow="2730" windowWidth="27890" windowHeight="17020" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="118">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -131,16 +131,16 @@
     <t>R007:</t>
   </si>
   <si>
-    <t>Black Box: Find Truck For Shipment</t>
+    <t>Find Truck for shipment</t>
   </si>
   <si>
     <t>TS0007</t>
   </si>
   <si>
-    <t>Rr008:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White Box : Find Truck For Shipment </t>
+    <t>R008:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration Test </t>
   </si>
   <si>
     <t>TS0008</t>
@@ -353,23 +353,50 @@
     <t>TS0076</t>
   </si>
   <si>
-    <t>TS0077</t>
-  </si>
-  <si>
-    <t>TS0078</t>
-  </si>
-  <si>
-    <t>TS0079</t>
-  </si>
-  <si>
-    <t>TS0080</t>
+    <t>AT001</t>
+  </si>
+  <si>
+    <t>AT002</t>
+  </si>
+  <si>
+    <t>AT003</t>
+  </si>
+  <si>
+    <t>AT004</t>
+  </si>
+  <si>
+    <t>AT005</t>
+  </si>
+  <si>
+    <t>AT006</t>
+  </si>
+  <si>
+    <t>AT007</t>
+  </si>
+  <si>
+    <t>IT001</t>
+  </si>
+  <si>
+    <t>IT002</t>
+  </si>
+  <si>
+    <t>IT003</t>
+  </si>
+  <si>
+    <t>IT004</t>
+  </si>
+  <si>
+    <t>IT005</t>
+  </si>
+  <si>
+    <t>IT006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +409,18 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -480,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -502,6 +541,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -816,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1892,10 +1935,10 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="I56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
@@ -1910,10 +1953,10 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="I57" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
@@ -1928,10 +1971,10 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="I58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
@@ -1946,10 +1989,10 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="I59" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
@@ -2043,7 +2086,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15">
+    <row r="65" spans="1:13" ht="15">
       <c r="A65" s="7"/>
       <c r="B65" s="2" t="s">
         <v>91</v>
@@ -2061,7 +2104,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15">
+    <row r="66" spans="1:13" ht="15">
       <c r="A66" s="7"/>
       <c r="B66" s="2" t="s">
         <v>92</v>
@@ -2079,7 +2122,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15">
+    <row r="67" spans="1:13" ht="15">
       <c r="A67" s="7"/>
       <c r="B67" s="2" t="s">
         <v>93</v>
@@ -2097,7 +2140,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15">
+    <row r="68" spans="1:13" ht="15">
       <c r="A68" s="7"/>
       <c r="B68" s="2" t="s">
         <v>94</v>
@@ -2115,7 +2158,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15">
+    <row r="69" spans="1:13" ht="15">
       <c r="A69" s="7"/>
       <c r="B69" s="2" t="s">
         <v>95</v>
@@ -2133,7 +2176,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15">
+    <row r="70" spans="1:13" ht="15">
       <c r="A70" s="7"/>
       <c r="B70" s="2" t="s">
         <v>96</v>
@@ -2151,7 +2194,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15">
+    <row r="71" spans="1:13" ht="15">
       <c r="A71" s="7"/>
       <c r="B71" s="2" t="s">
         <v>97</v>
@@ -2169,7 +2212,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15">
+    <row r="72" spans="1:13" ht="15">
       <c r="A72" s="7"/>
       <c r="B72" s="2" t="s">
         <v>98</v>
@@ -2187,7 +2230,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15">
+    <row r="73" spans="1:13" ht="15">
       <c r="A73" s="7"/>
       <c r="B73" s="2" t="s">
         <v>99</v>
@@ -2205,7 +2248,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15">
+    <row r="74" spans="1:13" ht="15">
       <c r="A74" s="7"/>
       <c r="B74" s="2" t="s">
         <v>100</v>
@@ -2223,7 +2266,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15">
+    <row r="75" spans="1:13" ht="15">
       <c r="A75" s="7"/>
       <c r="B75" s="2" t="s">
         <v>101</v>
@@ -2241,7 +2284,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15">
+    <row r="76" spans="1:13" ht="15">
       <c r="A76" s="7"/>
       <c r="B76" s="2" t="s">
         <v>102</v>
@@ -2259,7 +2302,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15">
+    <row r="77" spans="1:13" ht="15">
       <c r="A77" s="7"/>
       <c r="B77" s="2" t="s">
         <v>103</v>
@@ -2277,7 +2320,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15">
+    <row r="78" spans="1:13" ht="15">
       <c r="A78" s="7"/>
       <c r="B78" s="2" t="s">
         <v>104</v>
@@ -2295,73 +2338,360 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15">
-      <c r="A79" s="7"/>
+    <row r="79" spans="1:13" ht="15">
+      <c r="A79" s="6"/>
       <c r="B79" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-    </row>
-    <row r="80" spans="1:12" ht="15">
+      <c r="C79" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="12"/>
+    </row>
+    <row r="80" spans="1:13" ht="15">
       <c r="A80" s="7"/>
       <c r="B80" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-    </row>
-    <row r="81" spans="1:12" ht="15">
+      <c r="C80" s="13"/>
+      <c r="D80" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="12"/>
+    </row>
+    <row r="81" spans="1:13" ht="15">
       <c r="A81" s="7"/>
       <c r="B81" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="1:12" ht="15">
-      <c r="A82" s="8"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="12"/>
+    </row>
+    <row r="82" spans="1:13" ht="15">
+      <c r="A82" s="7"/>
       <c r="B82" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-    </row>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="12"/>
+    </row>
+    <row r="83" spans="1:13" ht="15">
+      <c r="A83" s="7"/>
+      <c r="B83" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="12"/>
+    </row>
+    <row r="84" spans="1:13" ht="15">
+      <c r="A84" s="7"/>
+      <c r="B84" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="12"/>
+    </row>
+    <row r="85" spans="1:13" ht="15">
+      <c r="A85" s="7"/>
+      <c r="B85" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="12"/>
+    </row>
+    <row r="86" spans="1:13" ht="15">
+      <c r="A86" s="7"/>
+      <c r="B86" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="12"/>
+    </row>
+    <row r="87" spans="1:13" ht="15">
+      <c r="A87" s="7"/>
+      <c r="B87" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="1:13" ht="15">
+      <c r="A88" s="7"/>
+      <c r="B88" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="1:13" ht="15">
+      <c r="A89" s="7"/>
+      <c r="B89" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="1:13" ht="15">
+      <c r="A90" s="7"/>
+      <c r="B90" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="1:13" ht="15">
+      <c r="A91" s="7"/>
+      <c r="B91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="1:13" ht="15">
+      <c r="A92" s="7"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="1:13" ht="15">
+      <c r="A93" s="7"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="1:13" ht="15">
+      <c r="A94" s="7"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="1:13" ht="15">
+      <c r="A95" s="7"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="1:13" ht="15">
+      <c r="A96" s="7"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="1:12" ht="15">
+      <c r="A97" s="7"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="1:12" ht="15">
+      <c r="A98" s="8"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="101" spans="1:12" ht="15">
+      <c r="A101" s="14"/>
+    </row>
+    <row r="105" spans="1:12" ht="15">
+      <c r="A105" s="11"/>
+    </row>
+    <row r="106" spans="1:12" ht="15"/>
+    <row r="107" spans="1:12" ht="15"/>
+    <row r="108" spans="1:12" ht="15"/>
+    <row r="109" spans="1:12" ht="15"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A63:A82"/>
+  <mergeCells count="7">
+    <mergeCell ref="A79:A98"/>
+    <mergeCell ref="A63:A78"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A22"/>
     <mergeCell ref="A1:A2"/>
